--- a/public/user_example.xlsx
+++ b/public/user_example.xlsx
@@ -2,19 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017\BÁO CÁO\BÁO CÁO MR ĐÔNG\LẬP BẢN ĐỒ\T11\Số liệu\Chốt\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$118</definedName>
+  </definedNames>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="587">
   <si>
     <t>Mã</t>
   </si>
@@ -86,15 +89,6 @@
     <t>hacongdiep@honghafeed.com.vn</t>
   </si>
   <si>
-    <t>KD371</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Đại</t>
-  </si>
-  <si>
-    <t>nguyenvandai@honghafeed.com.vn</t>
-  </si>
-  <si>
     <t>KD965</t>
   </si>
   <si>
@@ -104,32 +98,1703 @@
     <t>caoduchung@honghafeed.com.vn</t>
   </si>
   <si>
-    <t>KD873</t>
-  </si>
-  <si>
-    <t>Nguyễn Khắc Hùng</t>
-  </si>
-  <si>
-    <t>nguyenkhachung@honghafeed.com.vn</t>
-  </si>
-  <si>
     <t>Quản lý</t>
   </si>
   <si>
-    <t>TS</t>
+    <t>KD816</t>
+  </si>
+  <si>
+    <t>Tạ Duy Quang</t>
+  </si>
+  <si>
+    <t>KD1535</t>
+  </si>
+  <si>
+    <t>Trần Văn Trường</t>
+  </si>
+  <si>
+    <t>KD497</t>
+  </si>
+  <si>
+    <t>Đặng Quốc Quân</t>
+  </si>
+  <si>
+    <t>KD1576</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Minh</t>
+  </si>
+  <si>
+    <t>KD048</t>
+  </si>
+  <si>
+    <t>Trần Thanh Bằng</t>
+  </si>
+  <si>
+    <t>KD453</t>
+  </si>
+  <si>
+    <t>Trịnh Xuân Thiều</t>
+  </si>
+  <si>
+    <t>KD1579</t>
+  </si>
+  <si>
+    <t>Hoàng Việt Hùng</t>
+  </si>
+  <si>
+    <t>KD1582</t>
+  </si>
+  <si>
+    <t>Dương Văn Cường</t>
+  </si>
+  <si>
+    <t>KD853</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Minh</t>
+  </si>
+  <si>
+    <t>KD552</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tùng</t>
+  </si>
+  <si>
+    <t>KD842</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Ngọc</t>
+  </si>
+  <si>
+    <t>KD509</t>
+  </si>
+  <si>
+    <t>Nguyễn Năng Tùng</t>
+  </si>
+  <si>
+    <t>KD939</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Độ</t>
+  </si>
+  <si>
+    <t>KD840</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hợp</t>
+  </si>
+  <si>
+    <t>KD471</t>
+  </si>
+  <si>
+    <t>Dương Thành Tuân</t>
+  </si>
+  <si>
+    <t>KD449</t>
+  </si>
+  <si>
+    <t>Phạm Đình Nam</t>
+  </si>
+  <si>
+    <t>KD815</t>
+  </si>
+  <si>
+    <t>Đoàn Huy Chương</t>
+  </si>
+  <si>
+    <t>KD855</t>
+  </si>
+  <si>
+    <t>Ngụy Văn Duyên</t>
+  </si>
+  <si>
+    <t>KD1531</t>
+  </si>
+  <si>
+    <t>Kim Xuân Thu</t>
+  </si>
+  <si>
+    <t>KD522</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Giang</t>
+  </si>
+  <si>
+    <t>KD062</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Hùng</t>
+  </si>
+  <si>
+    <t>KD441</t>
+  </si>
+  <si>
+    <t>Trần Văn Huân</t>
+  </si>
+  <si>
+    <t>KD892</t>
+  </si>
+  <si>
+    <t>Trần Mạnh Thắng</t>
+  </si>
+  <si>
+    <t>KD564</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiệp</t>
+  </si>
+  <si>
+    <t>KD889</t>
+  </si>
+  <si>
+    <t>Trần Văn Ninh</t>
+  </si>
+  <si>
+    <t>KD500</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Anh</t>
+  </si>
+  <si>
+    <t>KD847</t>
+  </si>
+  <si>
+    <t>Phạm Quang Huy</t>
+  </si>
+  <si>
+    <t>KD1525</t>
+  </si>
+  <si>
+    <t>Vương Viết Đức</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KD926 </t>
+  </si>
+  <si>
+    <t>Chu Văn Cường</t>
+  </si>
+  <si>
+    <t>KD394</t>
+  </si>
+  <si>
+    <t>Lại Ngọc Anh</t>
+  </si>
+  <si>
+    <t>KD981</t>
+  </si>
+  <si>
+    <t>Lê Việt Anh</t>
+  </si>
+  <si>
+    <t>KD567</t>
+  </si>
+  <si>
+    <t>Cà Văn Xuân</t>
+  </si>
+  <si>
+    <t>KD1506</t>
+  </si>
+  <si>
+    <t>Quàng Văn Sưởng</t>
+  </si>
+  <si>
+    <t>KD941</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Toản</t>
+  </si>
+  <si>
+    <t>KD940</t>
+  </si>
+  <si>
+    <t>Cà Văn Sinh</t>
+  </si>
+  <si>
+    <t>KD005</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Huân</t>
+  </si>
+  <si>
+    <t>KD603</t>
+  </si>
+  <si>
+    <t>Đậu Thúc Nhâm</t>
+  </si>
+  <si>
+    <t>KD927</t>
+  </si>
+  <si>
+    <t>Lê Hồng Minh</t>
+  </si>
+  <si>
+    <t>KD583</t>
+  </si>
+  <si>
+    <t>Lương Bá Hưng</t>
+  </si>
+  <si>
+    <t>KD1534</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Linh</t>
+  </si>
+  <si>
+    <t>KD857</t>
+  </si>
+  <si>
+    <t>Phạm Văn Toản</t>
+  </si>
+  <si>
+    <t>KD420</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Trí</t>
+  </si>
+  <si>
+    <t>KD877</t>
+  </si>
+  <si>
+    <t>Trương Thành Trung</t>
+  </si>
+  <si>
+    <t>KD359</t>
+  </si>
+  <si>
+    <t>Lê Văn Quí</t>
+  </si>
+  <si>
+    <t>KD929</t>
+  </si>
+  <si>
+    <t>Tạ Sơn Dương</t>
+  </si>
+  <si>
+    <t>KD1520</t>
+  </si>
+  <si>
+    <t>Nguyễn Minh Đoàn</t>
+  </si>
+  <si>
+    <t>KD350</t>
+  </si>
+  <si>
+    <t>Đặng Hữu Thọ</t>
+  </si>
+  <si>
+    <t>KD967</t>
+  </si>
+  <si>
+    <t>Chu Văn Hai</t>
+  </si>
+  <si>
+    <t>KD1575</t>
+  </si>
+  <si>
+    <t>Trần Văn Nam</t>
+  </si>
+  <si>
+    <t>KD961</t>
+  </si>
+  <si>
+    <t>Đỗ Đức Trung</t>
+  </si>
+  <si>
+    <t>KD1558</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hải</t>
+  </si>
+  <si>
+    <t>KD990</t>
+  </si>
+  <si>
+    <t>La Anh Tú</t>
+  </si>
+  <si>
+    <t>KD1552</t>
+  </si>
+  <si>
+    <t>Phạm Văn Khởi</t>
+  </si>
+  <si>
+    <t>KD1515</t>
+  </si>
+  <si>
+    <t>Phạm Tùng Lâm</t>
+  </si>
+  <si>
+    <t>KD416</t>
+  </si>
+  <si>
+    <t>Ngô Văn Chức</t>
+  </si>
+  <si>
+    <t>KD531</t>
+  </si>
+  <si>
+    <t>Hoàng Đức Sơn</t>
+  </si>
+  <si>
+    <t>Giám Đốc Vùng 7</t>
+  </si>
+  <si>
+    <t>KD027</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Mạnh</t>
+  </si>
+  <si>
+    <t>KD1519</t>
+  </si>
+  <si>
+    <t>Vũ Thế Tùng</t>
+  </si>
+  <si>
+    <t>KD558</t>
+  </si>
+  <si>
+    <t>Đào Trung Thành</t>
+  </si>
+  <si>
+    <t>KD1580</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Luận</t>
+  </si>
+  <si>
+    <t>KD334</t>
+  </si>
+  <si>
+    <t>Nguyễn Thiệu Anh</t>
+  </si>
+  <si>
+    <t>KD383</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoàng Ngọc</t>
+  </si>
+  <si>
+    <t>KD817</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Nam</t>
+  </si>
+  <si>
+    <t>KD935</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Dũng</t>
+  </si>
+  <si>
+    <t>KD887</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khang</t>
+  </si>
+  <si>
+    <t>KD428</t>
+  </si>
+  <si>
+    <t>Đồng Duy Minh</t>
+  </si>
+  <si>
+    <t>KD1505</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Long</t>
+  </si>
+  <si>
+    <t>KD875</t>
+  </si>
+  <si>
+    <t>Hà Văn Hiệp</t>
+  </si>
+  <si>
+    <t>KD952</t>
+  </si>
+  <si>
+    <t>Nguyễn Đức Tiến</t>
+  </si>
+  <si>
+    <t>KD828</t>
+  </si>
+  <si>
+    <t>Lê Huy Thạo</t>
+  </si>
+  <si>
+    <t>KD536</t>
+  </si>
+  <si>
+    <t>Vũ Văn Tiêm</t>
+  </si>
+  <si>
+    <t>KD876</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thủy</t>
+  </si>
+  <si>
+    <t>KD1508</t>
+  </si>
+  <si>
+    <t>Ninh Văn Kiên</t>
+  </si>
+  <si>
+    <t>KD010</t>
+  </si>
+  <si>
+    <t>Trần Văn Hùng</t>
+  </si>
+  <si>
+    <t>KD951</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hùng</t>
+  </si>
+  <si>
+    <t>KD369</t>
+  </si>
+  <si>
+    <t>Trương Trọng Quynh</t>
+  </si>
+  <si>
+    <t>KD1504</t>
+  </si>
+  <si>
+    <t>Mai Đức Luận</t>
+  </si>
+  <si>
+    <t>KD1537</t>
+  </si>
+  <si>
+    <t>Đoàn Nhật Linh</t>
+  </si>
+  <si>
+    <t>KD465</t>
+  </si>
+  <si>
+    <t>Trần Văn Cang</t>
+  </si>
+  <si>
+    <t>KD040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phạm Văn Sơn </t>
+  </si>
+  <si>
+    <t>KD366</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Song</t>
+  </si>
+  <si>
+    <t>KD938</t>
+  </si>
+  <si>
+    <t>Dương Văn Tuấn</t>
+  </si>
+  <si>
+    <t>KD362</t>
+  </si>
+  <si>
+    <t>Trần Dương Châu</t>
+  </si>
+  <si>
+    <t>KD860</t>
+  </si>
+  <si>
+    <t>Đinh Thế Vinh</t>
+  </si>
+  <si>
+    <t>KD916</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Hiện</t>
+  </si>
+  <si>
+    <t>KD958</t>
+  </si>
+  <si>
+    <t>Vũ Đức Anh</t>
+  </si>
+  <si>
+    <t>KD1564</t>
+  </si>
+  <si>
+    <t>Cồ Tiến Đạt</t>
+  </si>
+  <si>
+    <t>KD1524</t>
+  </si>
+  <si>
+    <t>Tạ Ngọc Vinh</t>
+  </si>
+  <si>
+    <t>KD397</t>
+  </si>
+  <si>
+    <t>Vũ Văn Hoàn</t>
+  </si>
+  <si>
+    <t>KD043</t>
+  </si>
+  <si>
+    <t>Phạm Tiến Sỹ</t>
+  </si>
+  <si>
+    <t>KD610</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Tùng</t>
+  </si>
+  <si>
+    <t>KD834</t>
+  </si>
+  <si>
+    <t>Trần Thủy Giang</t>
+  </si>
+  <si>
+    <t>KD849</t>
+  </si>
+  <si>
+    <t>Lê Văn Long</t>
+  </si>
+  <si>
+    <t>KD046</t>
+  </si>
+  <si>
+    <t>Nguyễn Quyết Thắng</t>
+  </si>
+  <si>
+    <t>KD042</t>
+  </si>
+  <si>
+    <t>Lê Văn Bình</t>
+  </si>
+  <si>
+    <t>KD385</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hưng</t>
+  </si>
+  <si>
+    <t>KD443</t>
+  </si>
+  <si>
+    <t>Nguyễn Khắc Thuật</t>
+  </si>
+  <si>
+    <t>KD593</t>
+  </si>
+  <si>
+    <t>Vũ Hữu Minh</t>
+  </si>
+  <si>
+    <t>KD374</t>
+  </si>
+  <si>
+    <t>Lê Quang An</t>
+  </si>
+  <si>
+    <t>KD1512</t>
+  </si>
+  <si>
+    <t>Hồ Tiến Trình</t>
+  </si>
+  <si>
+    <t>KD872</t>
+  </si>
+  <si>
+    <t>Nguyễn Võ Tuyên</t>
+  </si>
+  <si>
+    <t>KD581</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hiền</t>
+  </si>
+  <si>
+    <t>KD1521</t>
+  </si>
+  <si>
+    <t>Nguyễn Vĩnh Triệu</t>
+  </si>
+  <si>
+    <t>KD469</t>
+  </si>
+  <si>
+    <t>Thân Hưng Quỳnh</t>
+  </si>
+  <si>
+    <t>KD018</t>
+  </si>
+  <si>
+    <t>Nguyễn Trọng Luận</t>
+  </si>
+  <si>
+    <t>KD066</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khánh</t>
+  </si>
+  <si>
+    <t>KD962</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Cao</t>
+  </si>
+  <si>
+    <t>taduyquang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranvantruong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>dangquocquan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenducminh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranthanhbang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>trinhxuanthieu@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>hoangviethung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>duongvancuong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyendinhminh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>lethanhtung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanngoc@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyennangtung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvando@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanhop@honghafeed,com.vn</t>
+  </si>
+  <si>
+    <t>duongthanhtuan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamdinhnam@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>doanhuychuong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyvanduyen@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>kimxuanthu@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenthigiang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenquanghung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranvanhuan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranmanhthang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanhiep@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranvanninh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenngocanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamquanghuy@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>vuongvietduc@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>chuvancuong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>laingocanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>levietanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>cavanxuan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>quangvansuong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>doxuantoan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>cavansinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>dovanhuan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>dauthucnham@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>lehongminh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>luongbahung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanlinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamvantoan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvantri@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>levanqui@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tasonduong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenminhdoan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>chuvanhai@honhafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranvannam@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>doductrung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamvanhai@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>laanhtu@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamvankhoi@honghafee.com.vn</t>
+  </si>
+  <si>
+    <t>phamtunglam@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>ngovanchuc@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>hoangducson@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyentienmanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>vuthetung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>daotrungthanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenxuanluan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenthieuanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenhoangngoc@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvannam@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvandung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvankhang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>dongduyminh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenduclong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>havanhiep@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenductien@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>lehuythao@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>vuvantiem@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanthuy@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>ninhvankien@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranvanhung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanhung1@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>truongtrongquynh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>maiducluan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>doannhatlinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranvancang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamvanson@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenxuansong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>duongvantuan1@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranduongchau@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>dinhthevinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvanhien@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>vuducanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>cotiendat@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tangocvinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>vuvanhoan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamtiensy@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenthanhtung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>tranthuygiang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>levanlong@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenquyetthang@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>levanbinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamvanhung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenkhacthuat@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>vuhuuminh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>lequangan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>hotientrinh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvotuyen@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>phamvanhien@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvinhtrieu@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>thanhungquynh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyentrongluan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvankhanh@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenhuucao@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>0982.957.643</t>
+  </si>
+  <si>
+    <t>0963.729.136</t>
+  </si>
+  <si>
+    <t>0978.435.763</t>
+  </si>
+  <si>
+    <t>0981.931.106</t>
+  </si>
+  <si>
+    <t>0981.938.582</t>
+  </si>
+  <si>
+    <t>0973.798.825</t>
+  </si>
+  <si>
+    <t>0977.589.770</t>
+  </si>
+  <si>
+    <t>0989.386.925</t>
+  </si>
+  <si>
+    <t>0981.062.599</t>
+  </si>
+  <si>
+    <t>0978.525.913</t>
+  </si>
+  <si>
+    <t>0981.057.229</t>
+  </si>
+  <si>
+    <t>0981.426.483</t>
+  </si>
+  <si>
+    <t>0963.293.315</t>
+  </si>
+  <si>
+    <t>0961.047.389</t>
+  </si>
+  <si>
+    <t>0985.894.365</t>
+  </si>
+  <si>
+    <t>0981.162.923</t>
+  </si>
+  <si>
+    <t>0981.162.563</t>
+  </si>
+  <si>
+    <t>0978.109.951</t>
+  </si>
+  <si>
+    <t>0963.397.037</t>
+  </si>
+  <si>
+    <t>0961.047.387</t>
+  </si>
+  <si>
+    <t>0981.475.025</t>
+  </si>
+  <si>
+    <t>0963.790.136</t>
+  </si>
+  <si>
+    <t>0985.802.219</t>
+  </si>
+  <si>
+    <t>0985.872.036</t>
+  </si>
+  <si>
+    <t>01696.865.598</t>
+  </si>
+  <si>
+    <t>0984.917.632</t>
+  </si>
+  <si>
+    <t>0981.304.429</t>
+  </si>
+  <si>
+    <t>0985.884.925</t>
+  </si>
+  <si>
+    <t>0965.162.682</t>
+  </si>
+  <si>
+    <t>0962.821.770</t>
+  </si>
+  <si>
+    <t>0963.268.861</t>
+  </si>
+  <si>
+    <t>0977.605.681</t>
+  </si>
+  <si>
+    <t>0981.104.739</t>
+  </si>
+  <si>
+    <t>0977.594.795</t>
+  </si>
+  <si>
+    <t>0981.328.239</t>
+  </si>
+  <si>
+    <t>0963.285.987</t>
+  </si>
+  <si>
+    <t>0981.933.581</t>
+  </si>
+  <si>
+    <t>0968.999.463</t>
+  </si>
+  <si>
+    <t>0981.147.739</t>
+  </si>
+  <si>
+    <t>0982.317.933</t>
+  </si>
+  <si>
+    <t>0986.002.392</t>
+  </si>
+  <si>
+    <t>0983.530.454</t>
+  </si>
+  <si>
+    <t>0977.593.083</t>
+  </si>
+  <si>
+    <t>0964.092.486</t>
+  </si>
+  <si>
+    <t>01696.920.365</t>
+  </si>
+  <si>
+    <t>0981.938.581</t>
+  </si>
+  <si>
+    <t>0981.139.332</t>
+  </si>
+  <si>
+    <t>0983.289.371</t>
+  </si>
+  <si>
+    <t>0981.092.539</t>
+  </si>
+  <si>
+    <t>0963.716.136</t>
+  </si>
+  <si>
+    <t>0981.030.926</t>
+  </si>
+  <si>
+    <t>0983.530.501</t>
+  </si>
+  <si>
+    <t>0979.409.803</t>
+  </si>
+  <si>
+    <t>0963.180.562</t>
+  </si>
+  <si>
+    <t>0981.167.323</t>
+  </si>
+  <si>
+    <t>0982.957.641</t>
+  </si>
+  <si>
+    <t>0964.063.586</t>
+  </si>
+  <si>
+    <t>0981.931.108</t>
+  </si>
+  <si>
+    <t>0985.842.875</t>
+  </si>
+  <si>
+    <t>0962.261.165</t>
+  </si>
+  <si>
+    <t>0968.999.154</t>
+  </si>
+  <si>
+    <t>0962.961.456</t>
+  </si>
+  <si>
+    <t>0985.945.258</t>
+  </si>
+  <si>
+    <t>0989.361.551</t>
+  </si>
+  <si>
+    <t>0965.398.682</t>
+  </si>
+  <si>
+    <t>0981.316.032</t>
+  </si>
+  <si>
+    <t>0982.733.006</t>
+  </si>
+  <si>
+    <t>0981.302.132</t>
+  </si>
+  <si>
+    <t>01646.927.204</t>
+  </si>
+  <si>
+    <t>0981.325.819</t>
+  </si>
+  <si>
+    <t>0977.522.791</t>
+  </si>
+  <si>
+    <t>0981.933.582</t>
+  </si>
+  <si>
+    <t>0963.767.126</t>
+  </si>
+  <si>
+    <t>0963.054.597</t>
+  </si>
+  <si>
+    <t>0982.317.935</t>
+  </si>
+  <si>
+    <t>0963.853.279</t>
+  </si>
+  <si>
+    <t>0982.957.640</t>
+  </si>
+  <si>
+    <t>0981.963.392</t>
+  </si>
+  <si>
+    <t>0962.263.185</t>
+  </si>
+  <si>
+    <t>0981.067.448</t>
+  </si>
+  <si>
+    <t>0977.913.981</t>
+  </si>
+  <si>
+    <t>0963.087.137</t>
+  </si>
+  <si>
+    <t>01632.784.704</t>
+  </si>
+  <si>
+    <t>0982.950.241</t>
+  </si>
+  <si>
+    <t>0969.555.870</t>
+  </si>
+  <si>
+    <t>0987.225.662</t>
+  </si>
+  <si>
+    <t>0981.340.965</t>
+  </si>
+  <si>
+    <t>0979.467.315</t>
+  </si>
+  <si>
+    <t>0981.292.139</t>
+  </si>
+  <si>
+    <t>0985.162.532</t>
+  </si>
+  <si>
+    <t>0985.293.659</t>
+  </si>
+  <si>
+    <t>0977.237.095</t>
+  </si>
+  <si>
+    <t>0964.023.279</t>
+  </si>
+  <si>
+    <t>0982.317.940</t>
+  </si>
+  <si>
+    <t>01632.893.704</t>
+  </si>
+  <si>
+    <t>0962.871.567</t>
+  </si>
+  <si>
+    <t>0963.798.733</t>
+  </si>
+  <si>
+    <t>01696.920.366</t>
+  </si>
+  <si>
+    <t>0977.156.980</t>
+  </si>
+  <si>
+    <t>0981.933.580</t>
+  </si>
+  <si>
+    <t>0974.048.039</t>
+  </si>
+  <si>
+    <t>0965.052.682</t>
+  </si>
+  <si>
+    <t>0977.030.815</t>
+  </si>
+  <si>
+    <t>0963.071.863</t>
+  </si>
+  <si>
+    <t>0985.677.365</t>
+  </si>
+  <si>
+    <t>0981.038.786</t>
+  </si>
+  <si>
+    <t>0963.827.355</t>
+  </si>
+  <si>
+    <t>01632.761.704</t>
+  </si>
+  <si>
+    <t>0962.272.265</t>
+  </si>
+  <si>
+    <t>0964.053.199</t>
+  </si>
+  <si>
+    <t>Vùng 1,3,6,7</t>
+  </si>
+  <si>
+    <t>Vùng 1</t>
+  </si>
+  <si>
+    <t>Phú Thọ 1+2+4+5+7+8</t>
+  </si>
+  <si>
+    <t>Phú Thọ 1</t>
+  </si>
+  <si>
+    <t>Phú Thọ 2</t>
+  </si>
+  <si>
+    <t>Phú Thọ 4</t>
+  </si>
+  <si>
+    <t>Phú Thọ 5</t>
+  </si>
+  <si>
+    <t>Phú Thọ 8</t>
+  </si>
+  <si>
+    <t>YB+LC+PT9</t>
+  </si>
+  <si>
+    <t>Lào Cai</t>
+  </si>
+  <si>
+    <t>TQ+PT3+PT6</t>
+  </si>
+  <si>
+    <t>Tuyên Quang</t>
+  </si>
+  <si>
+    <t>Phú Thọ 6</t>
+  </si>
+  <si>
+    <t>Bắc Giang 1+3+4+6+9</t>
+  </si>
+  <si>
+    <t>Bắc Giang 1</t>
+  </si>
+  <si>
+    <t>Bắc Giang 3</t>
+  </si>
+  <si>
+    <t>Bắc Giang 4</t>
+  </si>
+  <si>
+    <t>Bắc Giang 6</t>
+  </si>
+  <si>
+    <t>Bắc Giang 9</t>
+  </si>
+  <si>
+    <t>Bắc Giang  2+5+7+LS</t>
+  </si>
+  <si>
+    <t>Bắc Giang 2</t>
+  </si>
+  <si>
+    <t>Bắc Giang 7</t>
+  </si>
+  <si>
+    <t>Lạng Sơn</t>
+  </si>
+  <si>
+    <t>ĐA+SS+BN</t>
+  </si>
+  <si>
+    <t>Đông Anh</t>
+  </si>
+  <si>
+    <t>Vùng 3</t>
+  </si>
+  <si>
+    <t>Hà Tây 2+4+5+11+12+14+19+20</t>
+  </si>
+  <si>
+    <t>Hà Tây 4</t>
+  </si>
+  <si>
+    <t>Hà Tây 5+11+14</t>
+  </si>
+  <si>
+    <t>Hà Tây 5</t>
+  </si>
+  <si>
+    <t>Hà Tây 14</t>
+  </si>
+  <si>
+    <t>Hà Tây 2+12+19</t>
+  </si>
+  <si>
+    <t>Hà Tây 2</t>
+  </si>
+  <si>
+    <t>Hà Tây 12</t>
+  </si>
+  <si>
+    <t>Hà Tây 19</t>
+  </si>
+  <si>
+    <t>SL + ĐB</t>
+  </si>
+  <si>
+    <t>Sơn La 1</t>
+  </si>
+  <si>
+    <t>Sơn La 2</t>
+  </si>
+  <si>
+    <t>Điện Biên 1</t>
+  </si>
+  <si>
+    <t>Điện Biên 2</t>
+  </si>
+  <si>
+    <t>Lai Châu</t>
+  </si>
+  <si>
+    <t>Hà Tây + Hòa Bình</t>
+  </si>
+  <si>
+    <t>Hà Tây 8</t>
+  </si>
+  <si>
+    <t>Hà Tây 9</t>
+  </si>
+  <si>
+    <t>Hà Tây 13</t>
+  </si>
+  <si>
+    <t>Hà Tây 1+16+17+18</t>
+  </si>
+  <si>
+    <t>Hà Tây 3+6+7</t>
+  </si>
+  <si>
+    <t>Hòa Bình 2+3+ HT 10+15</t>
+  </si>
+  <si>
+    <t>Hòa Bình 3</t>
+  </si>
+  <si>
+    <t>Hà Tây 15</t>
+  </si>
+  <si>
+    <t>Vùng 6</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 1+2+3+4</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 1</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 2</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 3</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 4</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 6</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 7</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 8+9+10</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 8</t>
+  </si>
+  <si>
+    <t>Vĩnh Phúc 10</t>
+  </si>
+  <si>
+    <t>Vùng 7</t>
+  </si>
+  <si>
+    <t>Thái Nguyên 1+2+3+4</t>
+  </si>
+  <si>
+    <t>Thái Nguyên 2</t>
+  </si>
+  <si>
+    <t>Vùng 2,4,5</t>
+  </si>
+  <si>
+    <t>Vùng 2</t>
+  </si>
+  <si>
+    <t>Hải Phòng 2</t>
+  </si>
+  <si>
+    <t>Hưng Yên</t>
+  </si>
+  <si>
+    <t>Hưng Yên 1</t>
+  </si>
+  <si>
+    <t>Hưng Yên 3</t>
+  </si>
+  <si>
+    <t>Hưng Yên 4</t>
+  </si>
+  <si>
+    <t>Hải Phòng 1+3+4</t>
+  </si>
+  <si>
+    <t>Hải Phòng 3</t>
+  </si>
+  <si>
+    <t>Hải Dương 1+2+4+7</t>
+  </si>
+  <si>
+    <t>Hải Dương 1</t>
+  </si>
+  <si>
+    <t>Hải Dương 2</t>
+  </si>
+  <si>
+    <t>Hải Dương 3+5+6</t>
+  </si>
+  <si>
+    <t>Hải Dương 5</t>
+  </si>
+  <si>
+    <t>Hải Dương 6</t>
+  </si>
+  <si>
+    <t>Vùng 4</t>
+  </si>
+  <si>
+    <t>HN - NĐ - TB - NB</t>
+  </si>
+  <si>
+    <t>Hà Nam 4</t>
+  </si>
+  <si>
+    <t>Hà Nam 1+3+9</t>
+  </si>
+  <si>
+    <t>Hà Nam 1</t>
+  </si>
+  <si>
+    <t>Hà Nam 9</t>
+  </si>
+  <si>
+    <t>Hà Nam 2+6+7+8 + NĐ1</t>
+  </si>
+  <si>
+    <t>Hà Nam 6</t>
+  </si>
+  <si>
+    <t>Hà Nam 8</t>
+  </si>
+  <si>
+    <t>Nam Định 1</t>
+  </si>
+  <si>
+    <t>Ninh Bình</t>
+  </si>
+  <si>
+    <t>Ninh Bình 1</t>
+  </si>
+  <si>
+    <t>Ninh Bình 2</t>
+  </si>
+  <si>
+    <t>Ninh Bình 3</t>
+  </si>
+  <si>
+    <t>Nam Định 2+3+4</t>
+  </si>
+  <si>
+    <t>Nam Định 3</t>
+  </si>
+  <si>
+    <t>Nam Định 4</t>
+  </si>
+  <si>
+    <t>Thái Bình</t>
+  </si>
+  <si>
+    <t>Thái Bình 2</t>
+  </si>
+  <si>
+    <t>Thái Bình 3</t>
+  </si>
+  <si>
+    <t>Thanh Hóa</t>
+  </si>
+  <si>
+    <t>Thanh Hóa 2</t>
+  </si>
+  <si>
+    <t>Thanh Hóa 4</t>
+  </si>
+  <si>
+    <t>Thanh Hóa 5</t>
+  </si>
+  <si>
+    <t>Thanh Hóa 3</t>
+  </si>
+  <si>
+    <t>Vùng 5</t>
+  </si>
+  <si>
+    <t>Nghệ An 1</t>
+  </si>
+  <si>
+    <t>Nghệ An 2+3</t>
+  </si>
+  <si>
+    <t>Nghệ An 3</t>
+  </si>
+  <si>
+    <t>Quảng Bình</t>
+  </si>
+  <si>
+    <t>Quảng Bình 1</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh 1</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh 2</t>
+  </si>
+  <si>
+    <t>Hà Tĩnh 3</t>
+  </si>
+  <si>
+    <t>Vùng</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>KD1545</t>
+  </si>
+  <si>
+    <t>Vũ Bảo Trung</t>
+  </si>
+  <si>
+    <t>KD1568</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Toản</t>
+  </si>
+  <si>
+    <t>vubaotrung@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>nguyenvantoan@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>0981.064.286</t>
+  </si>
+  <si>
+    <t>0978.446.438</t>
+  </si>
+  <si>
+    <t>0869084888</t>
+  </si>
+  <si>
+    <t>Hà Tây 1+17</t>
+  </si>
+  <si>
+    <t>Hà Tây 6+7</t>
+  </si>
+  <si>
+    <t>danghuutho@honghafeed.com.vn</t>
+  </si>
+  <si>
+    <t>01676640643</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
-    <t>GDV</t>
+    <t>Mã của quản lý trực tiếp</t>
+  </si>
+  <si>
+    <t>để mã quản lý là GĐV</t>
+  </si>
+  <si>
+    <t>truongthanhtrung@honghafeed.com.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,14 +1822,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color indexed="12"/>
@@ -172,22 +1829,127 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="10"/>
-      <color indexed="12"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,12 +1976,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -242,16 +2028,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,52 +2126,303 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 6" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9900"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -359,7 +2477,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,7 +2512,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -579,22 +2697,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="26.140625" customWidth="1"/>
+    <col min="7" max="7" width="9" style="117"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -604,172 +2724,2885 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="68" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+      <c r="G1" s="106" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="22">
-        <v>123456789</v>
-      </c>
-      <c r="E2" s="6" t="s">
+      <c r="D2" s="69" t="s">
+        <v>344</v>
+      </c>
+      <c r="E2" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="F2" s="72" t="s">
+        <v>454</v>
+      </c>
+      <c r="G2" s="107"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="6" t="s">
+      <c r="D3" s="69" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="72" t="s">
+        <v>455</v>
+      </c>
+      <c r="G3" s="107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="70" t="s">
+        <v>346</v>
+      </c>
+      <c r="E4" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" s="108" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="G5" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="70" t="s">
+        <v>348</v>
+      </c>
+      <c r="E6" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="75" t="s">
+        <v>458</v>
+      </c>
+      <c r="G6" s="109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="D7" s="70" t="s">
+        <v>349</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>459</v>
+      </c>
+      <c r="G7" s="109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="D8" s="70" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="G8" s="109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>242</v>
+      </c>
+      <c r="D9" s="99" t="s">
+        <v>578</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="G9" s="109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="70" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>462</v>
+      </c>
+      <c r="G10" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>244</v>
+      </c>
+      <c r="D11" s="70" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="78" t="s">
+        <v>463</v>
+      </c>
+      <c r="G11" s="109" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>245</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>464</v>
+      </c>
+      <c r="G12" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="50" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>354</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="74" t="s">
+        <v>465</v>
+      </c>
+      <c r="G13" s="103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="E14" s="54" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="76" t="s">
+        <v>466</v>
+      </c>
+      <c r="G14" s="103" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>356</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F15" s="73" t="s">
+        <v>467</v>
+      </c>
+      <c r="G15" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>357</v>
+      </c>
+      <c r="E16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="80" t="s">
+        <v>468</v>
+      </c>
+      <c r="G16" s="103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="D17" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="E17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="74" t="s">
+        <v>469</v>
+      </c>
+      <c r="G17" s="103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>251</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>359</v>
+      </c>
+      <c r="E18" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="74" t="s">
+        <v>470</v>
+      </c>
+      <c r="G18" s="103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="50" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="70" t="s">
+        <v>360</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" s="77" t="s">
+        <v>471</v>
+      </c>
+      <c r="G19" s="103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="57" t="s">
+        <v>253</v>
+      </c>
+      <c r="D20" s="70" t="s">
+        <v>361</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="74" t="s">
+        <v>472</v>
+      </c>
+      <c r="G20" s="103" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F21" s="73" t="s">
+        <v>473</v>
+      </c>
+      <c r="G21" s="108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="58" t="s">
+        <v>255</v>
+      </c>
+      <c r="D22" s="70" t="s">
+        <v>363</v>
+      </c>
+      <c r="E22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="77" t="s">
+        <v>474</v>
+      </c>
+      <c r="G22" s="104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="70" t="s">
+        <v>364</v>
+      </c>
+      <c r="E23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="80" t="s">
+        <v>475</v>
+      </c>
+      <c r="G23" s="104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C24" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D24" s="70" t="s">
+        <v>365</v>
+      </c>
+      <c r="E24" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="74" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="104" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="70" t="s">
+        <v>366</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F25" s="73" t="s">
+        <v>477</v>
+      </c>
+      <c r="G25" s="108" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="13" t="s">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="55" t="s">
+        <v>258</v>
+      </c>
+      <c r="D26" s="70" t="s">
+        <v>367</v>
+      </c>
+      <c r="E26" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="74" t="s">
+        <v>478</v>
+      </c>
+      <c r="G26" s="103" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="B27" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="84" t="s">
+        <v>344</v>
+      </c>
+      <c r="E27" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="G27" s="110" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="92" t="s">
+        <v>480</v>
+      </c>
+      <c r="G28" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>260</v>
+      </c>
+      <c r="D29" s="70" t="s">
+        <v>369</v>
+      </c>
+      <c r="E29" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" s="77" t="s">
+        <v>481</v>
+      </c>
+      <c r="G29" s="103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="D30" s="70" t="s">
+        <v>370</v>
+      </c>
+      <c r="E30" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F30" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="G30" s="102" t="s">
+        <v>64</v>
+      </c>
+      <c r="J30" s="93"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="55" t="s">
+        <v>262</v>
+      </c>
+      <c r="D31" s="70" t="s">
+        <v>371</v>
+      </c>
+      <c r="E31" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" s="74" t="s">
+        <v>483</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="70" t="s">
+        <v>372</v>
+      </c>
+      <c r="E32" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="74" t="s">
+        <v>484</v>
+      </c>
+      <c r="G32" s="103" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" s="70" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F33" s="73" t="s">
+        <v>485</v>
+      </c>
+      <c r="G33" s="102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="D34" s="70" t="s">
+        <v>374</v>
+      </c>
+      <c r="E34" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="74" t="s">
+        <v>486</v>
+      </c>
+      <c r="G34" s="103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>266</v>
+      </c>
+      <c r="D35" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="E35" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="74" t="s">
+        <v>487</v>
+      </c>
+      <c r="G35" s="103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="62" t="s">
+        <v>267</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>376</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="74" t="s">
+        <v>488</v>
+      </c>
+      <c r="G36" s="103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="55" t="s">
+        <v>268</v>
+      </c>
+      <c r="D37" s="70" t="s">
+        <v>377</v>
+      </c>
+      <c r="E37" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F37" s="73" t="s">
+        <v>489</v>
+      </c>
+      <c r="G37" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="100" t="s">
+        <v>84</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="70" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="77" t="s">
+        <v>490</v>
+      </c>
+      <c r="G38" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>270</v>
+      </c>
+      <c r="D39" s="70" t="s">
+        <v>379</v>
+      </c>
+      <c r="E39" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="77" t="s">
+        <v>491</v>
+      </c>
+      <c r="G39" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B40" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>271</v>
+      </c>
+      <c r="D40" s="70" t="s">
+        <v>380</v>
+      </c>
+      <c r="E40" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="74" t="s">
+        <v>492</v>
+      </c>
+      <c r="G40" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="D41" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="E41" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G41" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C42" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>382</v>
+      </c>
+      <c r="E42" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="74" t="s">
+        <v>494</v>
+      </c>
+      <c r="G42" s="104" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="63" t="s">
+        <v>274</v>
+      </c>
+      <c r="D43" s="84" t="s">
+        <v>383</v>
+      </c>
+      <c r="E43" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="81" t="s">
+        <v>495</v>
+      </c>
+      <c r="G43" s="111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="50" t="s">
+        <v>275</v>
+      </c>
+      <c r="D44" s="70" t="s">
+        <v>384</v>
+      </c>
+      <c r="E44" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="G44" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="H44" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="D45" s="70" t="s">
+        <v>385</v>
+      </c>
+      <c r="E45" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F45" s="77" t="s">
+        <v>497</v>
+      </c>
+      <c r="G45" s="103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C46" s="55" t="s">
+        <v>277</v>
+      </c>
+      <c r="D46" s="70" t="s">
+        <v>386</v>
+      </c>
+      <c r="E46" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="77" t="s">
+        <v>498</v>
+      </c>
+      <c r="G46" s="103" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>278</v>
+      </c>
+      <c r="D47" s="70" t="s">
+        <v>387</v>
+      </c>
+      <c r="E47" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F47" s="73" t="s">
+        <v>499</v>
+      </c>
+      <c r="G47" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C48" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D48" s="70" t="s">
+        <v>388</v>
+      </c>
+      <c r="E48" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="77" t="s">
+        <v>579</v>
+      </c>
+      <c r="G48" s="103" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C49" s="55" t="s">
+        <v>280</v>
+      </c>
+      <c r="D49" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="E49" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F49" s="73" t="s">
+        <v>500</v>
+      </c>
+      <c r="G49" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A50" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>586</v>
+      </c>
+      <c r="D50" s="70" t="s">
+        <v>390</v>
+      </c>
+      <c r="E50" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" s="74" t="s">
+        <v>580</v>
+      </c>
+      <c r="G50" s="104" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>281</v>
+      </c>
+      <c r="D51" s="70" t="s">
+        <v>391</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F51" s="73" t="s">
+        <v>501</v>
+      </c>
+      <c r="G51" s="102" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52" s="56" t="s">
+        <v>282</v>
+      </c>
+      <c r="D52" s="70" t="s">
+        <v>392</v>
+      </c>
+      <c r="E52" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="G52" s="103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="D53" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="E53" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" s="74" t="s">
+        <v>503</v>
+      </c>
+      <c r="G53" s="103" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B54" s="94" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="90" t="s">
+        <v>259</v>
+      </c>
+      <c r="D54" s="84" t="s">
+        <v>368</v>
+      </c>
+      <c r="E54" s="91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" s="72" t="s">
+        <v>504</v>
+      </c>
+      <c r="G54" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="65" t="s">
+        <v>581</v>
+      </c>
+      <c r="D55" s="70" t="s">
+        <v>394</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F55" s="73" t="s">
+        <v>505</v>
+      </c>
+      <c r="G55" s="102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>284</v>
+      </c>
+      <c r="D56" s="70" t="s">
+        <v>395</v>
+      </c>
+      <c r="E56" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="80" t="s">
+        <v>506</v>
+      </c>
+      <c r="G56" s="103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B57" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>285</v>
+      </c>
+      <c r="D57" s="70" t="s">
+        <v>396</v>
+      </c>
+      <c r="E57" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" s="74" t="s">
+        <v>507</v>
+      </c>
+      <c r="G57" s="103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="52" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="70" t="s">
+        <v>397</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" s="80" t="s">
+        <v>508</v>
+      </c>
+      <c r="G58" s="103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="D59" s="101" t="s">
+        <v>582</v>
+      </c>
+      <c r="E59" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59" s="80" t="s">
+        <v>509</v>
+      </c>
+      <c r="G59" s="103" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="9"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="80"/>
+      <c r="G60" s="112"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B61" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="D61" s="70" t="s">
+        <v>398</v>
+      </c>
+      <c r="E61" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="80" t="s">
+        <v>510</v>
+      </c>
+      <c r="G61" s="103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="D62" s="70" t="s">
+        <v>399</v>
+      </c>
+      <c r="E62" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="80" t="s">
+        <v>511</v>
+      </c>
+      <c r="G62" s="103" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F63" s="73" t="s">
+        <v>512</v>
+      </c>
+      <c r="G63" s="102" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="55" t="s">
+        <v>291</v>
+      </c>
+      <c r="D64" s="70" t="s">
+        <v>401</v>
+      </c>
+      <c r="E64" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="80" t="s">
+        <v>513</v>
+      </c>
+      <c r="G64" s="103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B65" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="D65" s="70" t="s">
+        <v>402</v>
+      </c>
+      <c r="E65" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65" s="80" t="s">
+        <v>514</v>
+      </c>
+      <c r="G65" s="103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C66" s="47"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="72" t="s">
+        <v>515</v>
+      </c>
+      <c r="G66" s="108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="55" t="s">
+        <v>293</v>
+      </c>
+      <c r="D67" s="70" t="s">
+        <v>403</v>
+      </c>
+      <c r="E67" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F67" s="73" t="s">
+        <v>516</v>
+      </c>
+      <c r="G67" s="110" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="61" t="s">
+        <v>294</v>
+      </c>
+      <c r="D68" s="70" t="s">
+        <v>404</v>
+      </c>
+      <c r="E68" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="74" t="s">
+        <v>517</v>
+      </c>
+      <c r="G68" s="103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C69" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D69" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="E69" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="72" t="s">
+        <v>518</v>
+      </c>
+      <c r="G69" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B70" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="C70" s="66" t="s">
+        <v>296</v>
+      </c>
+      <c r="D70" s="70" t="s">
+        <v>406</v>
+      </c>
+      <c r="E70" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="87" t="s">
+        <v>519</v>
+      </c>
+      <c r="G70" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B71" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="D71" s="70" t="s">
+        <v>407</v>
+      </c>
+      <c r="E71" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71" s="74" t="s">
+        <v>520</v>
+      </c>
+      <c r="G71" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="C72" s="67" t="s">
+        <v>298</v>
+      </c>
+      <c r="D72" s="70" t="s">
+        <v>408</v>
+      </c>
+      <c r="E72" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F72" s="73" t="s">
+        <v>521</v>
+      </c>
+      <c r="G72" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="D73" s="70" t="s">
+        <v>409</v>
+      </c>
+      <c r="E73" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F73" s="74" t="s">
+        <v>522</v>
+      </c>
+      <c r="G73" s="104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="56" t="s">
+        <v>300</v>
+      </c>
+      <c r="D74" s="70" t="s">
+        <v>410</v>
+      </c>
+      <c r="E74" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74" s="74" t="s">
+        <v>523</v>
+      </c>
+      <c r="G74" s="104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="50" t="s">
+        <v>301</v>
+      </c>
+      <c r="D75" s="70" t="s">
+        <v>411</v>
+      </c>
+      <c r="E75" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="74" t="s">
+        <v>524</v>
+      </c>
+      <c r="G75" s="104" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C76" s="55" t="s">
+        <v>302</v>
+      </c>
+      <c r="D76" s="70" t="s">
+        <v>412</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F76" s="73" t="s">
+        <v>525</v>
+      </c>
+      <c r="G76" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B77" s="30" t="s">
+        <v>158</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>303</v>
+      </c>
+      <c r="D77" s="70" t="s">
+        <v>413</v>
+      </c>
+      <c r="E77" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="74" t="s">
+        <v>526</v>
+      </c>
+      <c r="G77" s="104" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="70" t="s">
+        <v>414</v>
+      </c>
+      <c r="E78" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F78" s="73" t="s">
+        <v>527</v>
+      </c>
+      <c r="G78" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B79" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="C79" s="53" t="s">
+        <v>305</v>
+      </c>
+      <c r="D79" s="70" t="s">
+        <v>415</v>
+      </c>
+      <c r="E79" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F79" s="74" t="s">
+        <v>528</v>
+      </c>
+      <c r="G79" s="115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C80" s="50" t="s">
+        <v>306</v>
+      </c>
+      <c r="D80" s="70" t="s">
+        <v>416</v>
+      </c>
+      <c r="E80" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="74" t="s">
+        <v>529</v>
+      </c>
+      <c r="G80" s="115" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="C81" s="55" t="s">
+        <v>307</v>
+      </c>
+      <c r="D81" s="70" t="s">
+        <v>417</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F81" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="G81" s="114" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="C82" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="D82" s="70" t="s">
+        <v>418</v>
+      </c>
+      <c r="E82" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82" s="74" t="s">
+        <v>531</v>
+      </c>
+      <c r="G82" s="103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B83" s="30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C83" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="70" t="s">
+        <v>419</v>
+      </c>
+      <c r="E83" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83" s="74" t="s">
+        <v>532</v>
+      </c>
+      <c r="G83" s="103" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C84" s="47" t="s">
+        <v>295</v>
+      </c>
+      <c r="D84" s="84" t="s">
+        <v>405</v>
+      </c>
+      <c r="E84" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G84" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="66" t="s">
+        <v>310</v>
+      </c>
+      <c r="D85" s="70" t="s">
+        <v>420</v>
+      </c>
+      <c r="E85" s="86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="87" t="s">
+        <v>534</v>
+      </c>
+      <c r="G85" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="D86" s="70" t="s">
+        <v>421</v>
+      </c>
+      <c r="E86" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86" s="77" t="s">
+        <v>535</v>
+      </c>
+      <c r="G86" s="103" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="55" t="s">
+        <v>312</v>
+      </c>
+      <c r="D87" s="70" t="s">
+        <v>422</v>
+      </c>
+      <c r="E87" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F87" s="73" t="s">
+        <v>536</v>
+      </c>
+      <c r="G87" s="102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="30" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="D88" s="70" t="s">
+        <v>423</v>
+      </c>
+      <c r="E88" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88" s="77" t="s">
+        <v>537</v>
+      </c>
+      <c r="G88" s="105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="50" t="s">
+        <v>314</v>
+      </c>
+      <c r="D89" s="70" t="s">
+        <v>424</v>
+      </c>
+      <c r="E89" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F89" s="77" t="s">
+        <v>538</v>
+      </c>
+      <c r="G89" s="105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>315</v>
+      </c>
+      <c r="D90" s="70" t="s">
+        <v>425</v>
+      </c>
+      <c r="E90" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F90" s="73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G90" s="102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="D91" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="E91" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91" s="77" t="s">
+        <v>540</v>
+      </c>
+      <c r="G91" s="104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="55" t="s">
+        <v>317</v>
+      </c>
+      <c r="D92" s="70" t="s">
+        <v>427</v>
+      </c>
+      <c r="E92" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92" s="77" t="s">
+        <v>541</v>
+      </c>
+      <c r="G92" s="104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="D93" s="70" t="s">
+        <v>428</v>
+      </c>
+      <c r="E93" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93" s="77" t="s">
+        <v>542</v>
+      </c>
+      <c r="G93" s="104" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="55" t="s">
+        <v>319</v>
+      </c>
+      <c r="D94" s="70" t="s">
+        <v>429</v>
+      </c>
+      <c r="E94" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F94" s="73" t="s">
+        <v>543</v>
+      </c>
+      <c r="G94" s="102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A95" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="50" t="s">
+        <v>320</v>
+      </c>
+      <c r="D95" s="70" t="s">
+        <v>430</v>
+      </c>
+      <c r="E95" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F95" s="77" t="s">
+        <v>544</v>
+      </c>
+      <c r="G95" s="104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="50" t="s">
+        <v>321</v>
+      </c>
+      <c r="D96" s="70" t="s">
+        <v>431</v>
+      </c>
+      <c r="E96" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96" s="77" t="s">
+        <v>545</v>
+      </c>
+      <c r="G96" s="104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="D97" s="70" t="s">
+        <v>432</v>
+      </c>
+      <c r="E97" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97" s="77" t="s">
+        <v>546</v>
+      </c>
+      <c r="G97" s="104" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="50" t="s">
+        <v>323</v>
+      </c>
+      <c r="D98" s="70" t="s">
+        <v>433</v>
+      </c>
+      <c r="E98" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F98" s="73" t="s">
+        <v>547</v>
+      </c>
+      <c r="G98" s="102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A99" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="50" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="70" t="s">
+        <v>434</v>
+      </c>
+      <c r="E99" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F99" s="74" t="s">
+        <v>548</v>
+      </c>
+      <c r="G99" s="103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A100" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="D100" s="70" t="s">
+        <v>435</v>
+      </c>
+      <c r="E100" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F100" s="77" t="s">
+        <v>549</v>
+      </c>
+      <c r="G100" s="103" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="60" t="s">
+        <v>326</v>
+      </c>
+      <c r="D101" s="70" t="s">
+        <v>436</v>
+      </c>
+      <c r="E101" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F101" s="73" t="s">
+        <v>550</v>
+      </c>
+      <c r="G101" s="102" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A102" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C102" s="50" t="s">
+        <v>327</v>
+      </c>
+      <c r="D102" s="70" t="s">
+        <v>437</v>
+      </c>
+      <c r="E102" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102" s="82" t="s">
+        <v>551</v>
+      </c>
+      <c r="G102" s="116" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A103" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C103" s="50" t="s">
+        <v>328</v>
+      </c>
+      <c r="D103" s="70" t="s">
+        <v>438</v>
+      </c>
+      <c r="E103" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103" s="82" t="s">
+        <v>552</v>
+      </c>
+      <c r="G103" s="116" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A104" s="32" t="s">
+        <v>209</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C104" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="D104" s="70" t="s">
+        <v>439</v>
+      </c>
+      <c r="E104" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F104" s="83" t="s">
+        <v>553</v>
+      </c>
+      <c r="G104" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C105" s="55" t="s">
+        <v>330</v>
+      </c>
+      <c r="D105" s="70" t="s">
+        <v>440</v>
+      </c>
+      <c r="E105" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105" s="77" t="s">
+        <v>554</v>
+      </c>
+      <c r="G105" s="103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="C106" s="55" t="s">
+        <v>331</v>
+      </c>
+      <c r="D106" s="70" t="s">
+        <v>441</v>
+      </c>
+      <c r="E106" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F106" s="77" t="s">
+        <v>555</v>
+      </c>
+      <c r="G106" s="103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A107" s="44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" s="55" t="s">
+        <v>332</v>
+      </c>
+      <c r="D107" s="70" t="s">
+        <v>442</v>
+      </c>
+      <c r="E107" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F107" s="77" t="s">
+        <v>556</v>
+      </c>
+      <c r="G107" s="103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="B108" s="42" t="s">
+        <v>218</v>
+      </c>
+      <c r="C108" s="55" t="s">
+        <v>333</v>
+      </c>
+      <c r="D108" s="70" t="s">
+        <v>443</v>
+      </c>
+      <c r="E108" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="77" t="s">
+        <v>557</v>
+      </c>
+      <c r="G108" s="103" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A109" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B109" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C109" s="47" t="s">
+        <v>334</v>
+      </c>
+      <c r="D109" s="84" t="s">
+        <v>444</v>
+      </c>
+      <c r="E109" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="72" t="s">
+        <v>558</v>
+      </c>
+      <c r="G109" s="113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A110" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B110" s="46" t="s">
+        <v>222</v>
+      </c>
+      <c r="C110" s="55" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" s="70" t="s">
+        <v>445</v>
+      </c>
+      <c r="E110" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F110" s="74" t="s">
+        <v>559</v>
+      </c>
+      <c r="G110" s="109" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C111" s="50" t="s">
+        <v>336</v>
+      </c>
+      <c r="D111" s="70" t="s">
+        <v>446</v>
+      </c>
+      <c r="E111" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F111" s="83" t="s">
+        <v>560</v>
+      </c>
+      <c r="G111" s="113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A112" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C112" s="50" t="s">
+        <v>337</v>
+      </c>
+      <c r="D112" s="70" t="s">
+        <v>447</v>
+      </c>
+      <c r="E112" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F112" s="74" t="s">
+        <v>561</v>
+      </c>
+      <c r="G112" s="103" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C113" s="55" t="s">
+        <v>338</v>
+      </c>
+      <c r="D113" s="70" t="s">
+        <v>448</v>
+      </c>
+      <c r="E113" s="49" t="s">
+        <v>583</v>
+      </c>
+      <c r="F113" s="73" t="s">
+        <v>562</v>
+      </c>
+      <c r="G113" s="113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A114" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="C114" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D114" s="70" t="s">
+        <v>449</v>
+      </c>
+      <c r="E114" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114" s="74" t="s">
+        <v>563</v>
+      </c>
+      <c r="G114" s="103" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="B115" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C115" s="55" t="s">
+        <v>340</v>
+      </c>
+      <c r="D115" s="70" t="s">
+        <v>450</v>
+      </c>
+      <c r="E115" s="49" t="s">
+        <v>569</v>
+      </c>
+      <c r="F115" s="73" t="s">
+        <v>564</v>
+      </c>
+      <c r="G115" s="113" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="55" t="s">
+        <v>341</v>
+      </c>
+      <c r="D116" s="70" t="s">
+        <v>451</v>
+      </c>
+      <c r="E116" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F116" s="77" t="s">
+        <v>565</v>
+      </c>
+      <c r="G116" s="104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C117" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D117" s="70" t="s">
+        <v>452</v>
+      </c>
+      <c r="E117" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F117" s="74" t="s">
+        <v>566</v>
+      </c>
+      <c r="G117" s="104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="C118" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="D118" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="E118" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F118" s="74" t="s">
+        <v>567</v>
+      </c>
+      <c r="G118" s="104" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D121" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="G121" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>5</v>
+    </row>
+    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A122" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>571</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>574</v>
+      </c>
+      <c r="D122" s="98" t="s">
+        <v>577</v>
+      </c>
+      <c r="E122" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122" s="96" t="s">
+        <v>138</v>
+      </c>
+      <c r="G122" s="103" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>572</v>
+      </c>
+      <c r="B123" s="95" t="s">
+        <v>573</v>
+      </c>
+      <c r="C123" s="50" t="s">
+        <v>575</v>
+      </c>
+      <c r="D123" s="97" t="s">
+        <v>576</v>
+      </c>
+      <c r="E123" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123" s="96" t="s">
+        <v>55</v>
+      </c>
+      <c r="G123" s="104" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G118"/>
   <hyperlinks>
-    <hyperlink ref="C7" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="C8" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
-    <hyperlink ref="C5" r:id="rId5"/>
-    <hyperlink ref="C6" r:id="rId6"/>
-    <hyperlink ref="C2" r:id="rId7"/>
-    <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C117" r:id="rId1"/>
+    <hyperlink ref="C43" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId3"/>
+    <hyperlink ref="C105" r:id="rId4"/>
+    <hyperlink ref="C110" r:id="rId5"/>
+    <hyperlink ref="C72" r:id="rId6"/>
+    <hyperlink ref="C100" r:id="rId7"/>
+    <hyperlink ref="C4" r:id="rId8"/>
+    <hyperlink ref="C29" r:id="rId9"/>
+    <hyperlink ref="C3" r:id="rId10"/>
+    <hyperlink ref="C81" r:id="rId11"/>
+    <hyperlink ref="C33" r:id="rId12"/>
+    <hyperlink ref="C69" r:id="rId13"/>
+    <hyperlink ref="C109" r:id="rId14"/>
+    <hyperlink ref="C106" r:id="rId15"/>
+    <hyperlink ref="C49" r:id="rId16"/>
+    <hyperlink ref="C39" r:id="rId17"/>
+    <hyperlink ref="C107" r:id="rId18"/>
+    <hyperlink ref="C90" r:id="rId19"/>
+    <hyperlink ref="C8" r:id="rId20"/>
+    <hyperlink ref="C115" r:id="rId21"/>
+    <hyperlink ref="C113" r:id="rId22"/>
+    <hyperlink ref="C31" r:id="rId23"/>
+    <hyperlink ref="C87" r:id="rId24"/>
+    <hyperlink ref="C85" r:id="rId25"/>
+    <hyperlink ref="C116" r:id="rId26"/>
+    <hyperlink ref="C26" r:id="rId27"/>
+    <hyperlink ref="C67" r:id="rId28"/>
+    <hyperlink ref="C73" r:id="rId29"/>
+    <hyperlink ref="C104" r:id="rId30"/>
+    <hyperlink ref="C103" r:id="rId31"/>
+    <hyperlink ref="C16" r:id="rId32"/>
+    <hyperlink ref="C112" r:id="rId33"/>
+    <hyperlink ref="C24" r:id="rId34"/>
+    <hyperlink ref="C78" r:id="rId35"/>
+    <hyperlink ref="C34" r:id="rId36"/>
+    <hyperlink ref="C95" r:id="rId37"/>
+    <hyperlink ref="C48" r:id="rId38"/>
+    <hyperlink ref="C32" r:id="rId39"/>
+    <hyperlink ref="C82" r:id="rId40"/>
+    <hyperlink ref="C96" r:id="rId41"/>
+    <hyperlink ref="C75" r:id="rId42"/>
+    <hyperlink ref="C19" r:id="rId43"/>
+    <hyperlink ref="C50" r:id="rId44"/>
+    <hyperlink ref="C23" r:id="rId45"/>
+    <hyperlink ref="C76" r:id="rId46"/>
+    <hyperlink ref="C11" r:id="rId47"/>
+    <hyperlink ref="C14" r:id="rId48"/>
+    <hyperlink ref="C42" r:id="rId49"/>
+    <hyperlink ref="C92" r:id="rId50"/>
+    <hyperlink ref="C74" r:id="rId51"/>
+    <hyperlink ref="C93" r:id="rId52"/>
+    <hyperlink ref="C41" r:id="rId53"/>
+    <hyperlink ref="C6" r:id="rId54"/>
+    <hyperlink ref="C86" r:id="rId55"/>
+    <hyperlink ref="C118" r:id="rId56"/>
+    <hyperlink ref="C58" r:id="rId57"/>
+    <hyperlink ref="C38" r:id="rId58"/>
+    <hyperlink ref="C21" r:id="rId59"/>
+    <hyperlink ref="C97" r:id="rId60"/>
+    <hyperlink ref="C15" r:id="rId61"/>
+    <hyperlink ref="C61" r:id="rId62"/>
+    <hyperlink ref="C56" r:id="rId63"/>
+    <hyperlink ref="C64" r:id="rId64"/>
+    <hyperlink ref="C83" r:id="rId65"/>
+    <hyperlink ref="C77" r:id="rId66"/>
+    <hyperlink ref="C40" r:id="rId67"/>
+    <hyperlink ref="C88" r:id="rId68"/>
+    <hyperlink ref="C111" r:id="rId69"/>
+    <hyperlink ref="C108" r:id="rId70"/>
+    <hyperlink ref="C101" r:id="rId71"/>
+    <hyperlink ref="C10" r:id="rId72"/>
+    <hyperlink ref="C27" r:id="rId73"/>
+    <hyperlink ref="C63" r:id="rId74"/>
+    <hyperlink ref="C68" r:id="rId75"/>
+    <hyperlink ref="C99" r:id="rId76"/>
+    <hyperlink ref="C35" r:id="rId77"/>
+    <hyperlink ref="C25" r:id="rId78"/>
+    <hyperlink ref="C51" r:id="rId79"/>
+    <hyperlink ref="C114" r:id="rId80"/>
+    <hyperlink ref="C47" r:id="rId81"/>
+    <hyperlink ref="C18" r:id="rId82"/>
+    <hyperlink ref="C17" r:id="rId83"/>
+    <hyperlink ref="C20" r:id="rId84"/>
+    <hyperlink ref="C28" r:id="rId85"/>
+    <hyperlink ref="C53" r:id="rId86"/>
+    <hyperlink ref="C65" r:id="rId87"/>
+    <hyperlink ref="C55" r:id="rId88"/>
+    <hyperlink ref="C71" r:id="rId89"/>
+    <hyperlink ref="C80" r:id="rId90"/>
+    <hyperlink ref="C5" r:id="rId91"/>
+    <hyperlink ref="C30" r:id="rId92"/>
+    <hyperlink ref="C59" r:id="rId93"/>
+    <hyperlink ref="C98" r:id="rId94"/>
+    <hyperlink ref="C89" r:id="rId95"/>
+    <hyperlink ref="C44" r:id="rId96"/>
+    <hyperlink ref="C46" r:id="rId97"/>
+    <hyperlink ref="C57" r:id="rId98"/>
+    <hyperlink ref="C9" r:id="rId99"/>
+    <hyperlink ref="C79" r:id="rId100"/>
+    <hyperlink ref="C7" r:id="rId101"/>
+    <hyperlink ref="C62" r:id="rId102"/>
+    <hyperlink ref="C12" r:id="rId103"/>
+    <hyperlink ref="C84" r:id="rId104"/>
+    <hyperlink ref="C22" r:id="rId105"/>
+    <hyperlink ref="C13" r:id="rId106"/>
+    <hyperlink ref="C102" r:id="rId107"/>
+    <hyperlink ref="C123" r:id="rId108"/>
+    <hyperlink ref="C122" r:id="rId109"/>
+    <hyperlink ref="C54" r:id="rId110"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId111"/>
 </worksheet>
 </file>
--- a/public/user_example.xlsx
+++ b/public/user_example.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2017\BÁO CÁO\BÁO CÁO MR ĐÔNG\LẬP BẢN ĐỒ\T11\Số liệu\Chốt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hungu\Desktop\from_hh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="842"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="842"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="579">
   <si>
     <t>Mã</t>
   </si>
@@ -1737,30 +1737,6 @@
   </si>
   <si>
     <t>TV</t>
-  </si>
-  <si>
-    <t>KD1545</t>
-  </si>
-  <si>
-    <t>Vũ Bảo Trung</t>
-  </si>
-  <si>
-    <t>KD1568</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Toản</t>
-  </si>
-  <si>
-    <t>vubaotrung@honghafeed.com.vn</t>
-  </si>
-  <si>
-    <t>nguyenvantoan@honghafeed.com.vn</t>
-  </si>
-  <si>
-    <t>0981.064.286</t>
-  </si>
-  <si>
-    <t>0978.446.438</t>
   </si>
   <si>
     <t>0869084888</t>
@@ -1793,8 +1769,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1913,12 +1889,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -2118,7 +2088,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2342,18 +2312,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2363,7 +2321,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2375,31 +2333,31 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2408,7 +2366,7 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -2697,10 +2655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J123"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2711,7 +2669,7 @@
     <col min="4" max="4" width="13.85546875" style="71" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
     <col min="6" max="6" width="26.140625" customWidth="1"/>
-    <col min="7" max="7" width="9" style="117"/>
+    <col min="7" max="7" width="9" style="113"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2733,7 +2691,7 @@
       <c r="F1" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="102" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2756,7 +2714,7 @@
       <c r="F2" s="72" t="s">
         <v>454</v>
       </c>
-      <c r="G2" s="107"/>
+      <c r="G2" s="103"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2777,11 +2735,11 @@
       <c r="F3" s="72" t="s">
         <v>455</v>
       </c>
-      <c r="G3" s="107" t="s">
+      <c r="G3" s="103" t="s">
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2803,11 +2761,11 @@
       <c r="F4" s="73" t="s">
         <v>456</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="104" t="s">
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2829,11 +2787,11 @@
       <c r="F5" s="74" t="s">
         <v>457</v>
       </c>
-      <c r="G5" s="109" t="s">
+      <c r="G5" s="105" t="s">
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -2855,7 +2813,7 @@
       <c r="F6" s="75" t="s">
         <v>458</v>
       </c>
-      <c r="G6" s="109" t="s">
+      <c r="G6" s="105" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2878,7 +2836,7 @@
       <c r="F7" s="76" t="s">
         <v>459</v>
       </c>
-      <c r="G7" s="109" t="s">
+      <c r="G7" s="105" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2901,7 +2859,7 @@
       <c r="F8" s="74" t="s">
         <v>460</v>
       </c>
-      <c r="G8" s="109" t="s">
+      <c r="G8" s="105" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2915,8 +2873,8 @@
       <c r="C9" s="50" t="s">
         <v>242</v>
       </c>
-      <c r="D9" s="99" t="s">
-        <v>578</v>
+      <c r="D9" s="95" t="s">
+        <v>570</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>16</v>
@@ -2924,7 +2882,7 @@
       <c r="F9" s="74" t="s">
         <v>461</v>
       </c>
-      <c r="G9" s="109" t="s">
+      <c r="G9" s="105" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2942,12 +2900,12 @@
         <v>351</v>
       </c>
       <c r="E10" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F10" s="73" t="s">
         <v>462</v>
       </c>
-      <c r="G10" s="108" t="s">
+      <c r="G10" s="104" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2970,7 +2928,7 @@
       <c r="F11" s="78" t="s">
         <v>463</v>
       </c>
-      <c r="G11" s="109" t="s">
+      <c r="G11" s="105" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2988,12 +2946,12 @@
         <v>353</v>
       </c>
       <c r="E12" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F12" s="79" t="s">
         <v>464</v>
       </c>
-      <c r="G12" s="108" t="s">
+      <c r="G12" s="104" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3016,7 +2974,7 @@
       <c r="F13" s="74" t="s">
         <v>465</v>
       </c>
-      <c r="G13" s="103" t="s">
+      <c r="G13" s="99" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3039,7 +2997,7 @@
       <c r="F14" s="76" t="s">
         <v>466</v>
       </c>
-      <c r="G14" s="103" t="s">
+      <c r="G14" s="99" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3057,12 +3015,12 @@
         <v>356</v>
       </c>
       <c r="E15" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F15" s="73" t="s">
         <v>467</v>
       </c>
-      <c r="G15" s="108" t="s">
+      <c r="G15" s="104" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3085,7 +3043,7 @@
       <c r="F16" s="80" t="s">
         <v>468</v>
       </c>
-      <c r="G16" s="103" t="s">
+      <c r="G16" s="99" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3108,7 +3066,7 @@
       <c r="F17" s="74" t="s">
         <v>469</v>
       </c>
-      <c r="G17" s="103" t="s">
+      <c r="G17" s="99" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3131,7 +3089,7 @@
       <c r="F18" s="74" t="s">
         <v>470</v>
       </c>
-      <c r="G18" s="103" t="s">
+      <c r="G18" s="99" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3154,7 +3112,7 @@
       <c r="F19" s="77" t="s">
         <v>471</v>
       </c>
-      <c r="G19" s="103" t="s">
+      <c r="G19" s="99" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3177,7 +3135,7 @@
       <c r="F20" s="74" t="s">
         <v>472</v>
       </c>
-      <c r="G20" s="103" t="s">
+      <c r="G20" s="99" t="s">
         <v>42</v>
       </c>
     </row>
@@ -3195,12 +3153,12 @@
         <v>362</v>
       </c>
       <c r="E21" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F21" s="73" t="s">
         <v>473</v>
       </c>
-      <c r="G21" s="108" t="s">
+      <c r="G21" s="104" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3223,7 +3181,7 @@
       <c r="F22" s="77" t="s">
         <v>474</v>
       </c>
-      <c r="G22" s="104" t="s">
+      <c r="G22" s="100" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3246,7 +3204,7 @@
       <c r="F23" s="80" t="s">
         <v>475</v>
       </c>
-      <c r="G23" s="104" t="s">
+      <c r="G23" s="100" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3269,7 +3227,7 @@
       <c r="F24" s="74" t="s">
         <v>476</v>
       </c>
-      <c r="G24" s="104" t="s">
+      <c r="G24" s="100" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3287,12 +3245,12 @@
         <v>366</v>
       </c>
       <c r="E25" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F25" s="73" t="s">
         <v>477</v>
       </c>
-      <c r="G25" s="108" t="s">
+      <c r="G25" s="104" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3315,7 +3273,7 @@
       <c r="F26" s="74" t="s">
         <v>478</v>
       </c>
-      <c r="G26" s="103" t="s">
+      <c r="G26" s="99" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3338,7 +3296,7 @@
       <c r="F27" s="72" t="s">
         <v>479</v>
       </c>
-      <c r="G27" s="110" t="s">
+      <c r="G27" s="106" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3361,7 +3319,7 @@
       <c r="F28" s="92" t="s">
         <v>480</v>
       </c>
-      <c r="G28" s="110" t="s">
+      <c r="G28" s="106" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3384,7 +3342,7 @@
       <c r="F29" s="77" t="s">
         <v>481</v>
       </c>
-      <c r="G29" s="103" t="s">
+      <c r="G29" s="99" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3402,12 +3360,12 @@
         <v>370</v>
       </c>
       <c r="E30" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F30" s="73" t="s">
         <v>482</v>
       </c>
-      <c r="G30" s="102" t="s">
+      <c r="G30" s="98" t="s">
         <v>64</v>
       </c>
       <c r="J30" s="93"/>
@@ -3431,7 +3389,7 @@
       <c r="F31" s="74" t="s">
         <v>483</v>
       </c>
-      <c r="G31" s="103" t="s">
+      <c r="G31" s="99" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3454,7 +3412,7 @@
       <c r="F32" s="74" t="s">
         <v>484</v>
       </c>
-      <c r="G32" s="103" t="s">
+      <c r="G32" s="99" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3472,12 +3430,12 @@
         <v>373</v>
       </c>
       <c r="E33" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F33" s="73" t="s">
         <v>485</v>
       </c>
-      <c r="G33" s="102" t="s">
+      <c r="G33" s="98" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3500,7 +3458,7 @@
       <c r="F34" s="74" t="s">
         <v>486</v>
       </c>
-      <c r="G34" s="103" t="s">
+      <c r="G34" s="99" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3523,7 +3481,7 @@
       <c r="F35" s="74" t="s">
         <v>487</v>
       </c>
-      <c r="G35" s="103" t="s">
+      <c r="G35" s="99" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3546,7 +3504,7 @@
       <c r="F36" s="74" t="s">
         <v>488</v>
       </c>
-      <c r="G36" s="103" t="s">
+      <c r="G36" s="99" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3564,17 +3522,17 @@
         <v>377</v>
       </c>
       <c r="E37" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F37" s="73" t="s">
         <v>489</v>
       </c>
-      <c r="G37" s="110" t="s">
+      <c r="G37" s="106" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="s">
+      <c r="A38" s="96" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="29" t="s">
@@ -3592,7 +3550,7 @@
       <c r="F38" s="77" t="s">
         <v>490</v>
       </c>
-      <c r="G38" s="104" t="s">
+      <c r="G38" s="100" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3615,7 +3573,7 @@
       <c r="F39" s="77" t="s">
         <v>491</v>
       </c>
-      <c r="G39" s="104" t="s">
+      <c r="G39" s="100" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3638,7 +3596,7 @@
       <c r="F40" s="74" t="s">
         <v>492</v>
       </c>
-      <c r="G40" s="104" t="s">
+      <c r="G40" s="100" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3661,7 +3619,7 @@
       <c r="F41" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="G41" s="104" t="s">
+      <c r="G41" s="100" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3684,7 +3642,7 @@
       <c r="F42" s="74" t="s">
         <v>494</v>
       </c>
-      <c r="G42" s="104" t="s">
+      <c r="G42" s="100" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3707,7 +3665,7 @@
       <c r="F43" s="81" t="s">
         <v>495</v>
       </c>
-      <c r="G43" s="111" t="s">
+      <c r="G43" s="107" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3730,11 +3688,11 @@
       <c r="F44" s="77" t="s">
         <v>496</v>
       </c>
-      <c r="G44" s="103" t="s">
+      <c r="G44" s="99" t="s">
         <v>94</v>
       </c>
       <c r="H44" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -3756,7 +3714,7 @@
       <c r="F45" s="77" t="s">
         <v>497</v>
       </c>
-      <c r="G45" s="103" t="s">
+      <c r="G45" s="99" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3779,7 +3737,7 @@
       <c r="F46" s="77" t="s">
         <v>498</v>
       </c>
-      <c r="G46" s="103" t="s">
+      <c r="G46" s="99" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3797,12 +3755,12 @@
         <v>387</v>
       </c>
       <c r="E47" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F47" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="G47" s="102" t="s">
+      <c r="G47" s="98" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3823,9 +3781,9 @@
         <v>16</v>
       </c>
       <c r="F48" s="77" t="s">
-        <v>579</v>
-      </c>
-      <c r="G48" s="103" t="s">
+        <v>571</v>
+      </c>
+      <c r="G48" s="99" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3843,12 +3801,12 @@
         <v>389</v>
       </c>
       <c r="E49" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F49" s="73" t="s">
         <v>500</v>
       </c>
-      <c r="G49" s="102" t="s">
+      <c r="G49" s="98" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3860,7 +3818,7 @@
         <v>109</v>
       </c>
       <c r="C50" s="50" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="D50" s="70" t="s">
         <v>390</v>
@@ -3869,9 +3827,9 @@
         <v>16</v>
       </c>
       <c r="F50" s="74" t="s">
-        <v>580</v>
-      </c>
-      <c r="G50" s="104" t="s">
+        <v>572</v>
+      </c>
+      <c r="G50" s="100" t="s">
         <v>106</v>
       </c>
     </row>
@@ -3889,12 +3847,12 @@
         <v>391</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F51" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="G51" s="102" t="s">
+      <c r="G51" s="98" t="s">
         <v>94</v>
       </c>
     </row>
@@ -3917,7 +3875,7 @@
       <c r="F52" s="74" t="s">
         <v>502</v>
       </c>
-      <c r="G52" s="103" t="s">
+      <c r="G52" s="99" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3940,7 +3898,7 @@
       <c r="F53" s="74" t="s">
         <v>503</v>
       </c>
-      <c r="G53" s="103" t="s">
+      <c r="G53" s="99" t="s">
         <v>110</v>
       </c>
     </row>
@@ -3963,7 +3921,7 @@
       <c r="F54" s="72" t="s">
         <v>504</v>
       </c>
-      <c r="G54" s="110" t="s">
+      <c r="G54" s="106" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3975,18 +3933,18 @@
         <v>117</v>
       </c>
       <c r="C55" s="65" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D55" s="70" t="s">
         <v>394</v>
       </c>
       <c r="E55" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F55" s="73" t="s">
         <v>505</v>
       </c>
-      <c r="G55" s="102" t="s">
+      <c r="G55" s="98" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4009,7 +3967,7 @@
       <c r="F56" s="80" t="s">
         <v>506</v>
       </c>
-      <c r="G56" s="103" t="s">
+      <c r="G56" s="99" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4032,7 +3990,7 @@
       <c r="F57" s="74" t="s">
         <v>507</v>
       </c>
-      <c r="G57" s="103" t="s">
+      <c r="G57" s="99" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4055,7 +4013,7 @@
       <c r="F58" s="80" t="s">
         <v>508</v>
       </c>
-      <c r="G58" s="103" t="s">
+      <c r="G58" s="99" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4069,8 +4027,8 @@
       <c r="C59" s="50" t="s">
         <v>287</v>
       </c>
-      <c r="D59" s="101" t="s">
-        <v>582</v>
+      <c r="D59" s="97" t="s">
+        <v>574</v>
       </c>
       <c r="E59" s="51" t="s">
         <v>16</v>
@@ -4078,7 +4036,7 @@
       <c r="F59" s="80" t="s">
         <v>509</v>
       </c>
-      <c r="G59" s="103" t="s">
+      <c r="G59" s="99" t="s">
         <v>116</v>
       </c>
     </row>
@@ -4086,10 +4044,10 @@
       <c r="A60" s="9"/>
       <c r="B60" s="88"/>
       <c r="C60" s="50"/>
-      <c r="D60" s="101"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="51"/>
       <c r="F60" s="80"/>
-      <c r="G60" s="112"/>
+      <c r="G60" s="108"/>
     </row>
     <row r="61" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
@@ -4110,7 +4068,7 @@
       <c r="F61" s="80" t="s">
         <v>510</v>
       </c>
-      <c r="G61" s="103" t="s">
+      <c r="G61" s="99" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4133,7 +4091,7 @@
       <c r="F62" s="80" t="s">
         <v>511</v>
       </c>
-      <c r="G62" s="103" t="s">
+      <c r="G62" s="99" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4156,7 +4114,7 @@
       <c r="F63" s="73" t="s">
         <v>512</v>
       </c>
-      <c r="G63" s="102" t="s">
+      <c r="G63" s="98" t="s">
         <v>64</v>
       </c>
     </row>
@@ -4179,7 +4137,7 @@
       <c r="F64" s="80" t="s">
         <v>513</v>
       </c>
-      <c r="G64" s="103" t="s">
+      <c r="G64" s="99" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4202,7 +4160,7 @@
       <c r="F65" s="80" t="s">
         <v>514</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="G65" s="99" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4219,7 +4177,7 @@
       <c r="F66" s="72" t="s">
         <v>515</v>
       </c>
-      <c r="G66" s="108" t="s">
+      <c r="G66" s="104" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4237,12 +4195,12 @@
         <v>403</v>
       </c>
       <c r="E67" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F67" s="73" t="s">
         <v>516</v>
       </c>
-      <c r="G67" s="110" t="s">
+      <c r="G67" s="106" t="s">
         <v>5</v>
       </c>
     </row>
@@ -4265,7 +4223,7 @@
       <c r="F68" s="74" t="s">
         <v>517</v>
       </c>
-      <c r="G68" s="103" t="s">
+      <c r="G68" s="99" t="s">
         <v>137</v>
       </c>
     </row>
@@ -4288,7 +4246,7 @@
       <c r="F69" s="72" t="s">
         <v>518</v>
       </c>
-      <c r="G69" s="113" t="s">
+      <c r="G69" s="109" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4311,7 +4269,7 @@
       <c r="F70" s="87" t="s">
         <v>519</v>
       </c>
-      <c r="G70" s="113" t="s">
+      <c r="G70" s="109" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4334,7 +4292,7 @@
       <c r="F71" s="74" t="s">
         <v>520</v>
       </c>
-      <c r="G71" s="114" t="s">
+      <c r="G71" s="110" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4352,12 +4310,12 @@
         <v>408</v>
       </c>
       <c r="E72" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F72" s="73" t="s">
         <v>521</v>
       </c>
-      <c r="G72" s="114" t="s">
+      <c r="G72" s="110" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4380,7 +4338,7 @@
       <c r="F73" s="74" t="s">
         <v>522</v>
       </c>
-      <c r="G73" s="104" t="s">
+      <c r="G73" s="100" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4403,7 +4361,7 @@
       <c r="F74" s="74" t="s">
         <v>523</v>
       </c>
-      <c r="G74" s="104" t="s">
+      <c r="G74" s="100" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4426,7 +4384,7 @@
       <c r="F75" s="74" t="s">
         <v>524</v>
       </c>
-      <c r="G75" s="104" t="s">
+      <c r="G75" s="100" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4444,12 +4402,12 @@
         <v>412</v>
       </c>
       <c r="E76" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F76" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="G76" s="114" t="s">
+      <c r="G76" s="110" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4472,7 +4430,7 @@
       <c r="F77" s="74" t="s">
         <v>526</v>
       </c>
-      <c r="G77" s="104" t="s">
+      <c r="G77" s="100" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4495,7 +4453,7 @@
       <c r="F78" s="73" t="s">
         <v>527</v>
       </c>
-      <c r="G78" s="114" t="s">
+      <c r="G78" s="110" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4518,7 +4476,7 @@
       <c r="F79" s="74" t="s">
         <v>528</v>
       </c>
-      <c r="G79" s="115" t="s">
+      <c r="G79" s="111" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4541,7 +4499,7 @@
       <c r="F80" s="74" t="s">
         <v>529</v>
       </c>
-      <c r="G80" s="115" t="s">
+      <c r="G80" s="111" t="s">
         <v>159</v>
       </c>
     </row>
@@ -4564,7 +4522,7 @@
       <c r="F81" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="G81" s="114" t="s">
+      <c r="G81" s="110" t="s">
         <v>143</v>
       </c>
     </row>
@@ -4587,7 +4545,7 @@
       <c r="F82" s="74" t="s">
         <v>531</v>
       </c>
-      <c r="G82" s="103" t="s">
+      <c r="G82" s="99" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4610,7 +4568,7 @@
       <c r="F83" s="74" t="s">
         <v>532</v>
       </c>
-      <c r="G83" s="103" t="s">
+      <c r="G83" s="99" t="s">
         <v>165</v>
       </c>
     </row>
@@ -4633,7 +4591,7 @@
       <c r="F84" s="72" t="s">
         <v>533</v>
       </c>
-      <c r="G84" s="113" t="s">
+      <c r="G84" s="109" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4656,7 +4614,7 @@
       <c r="F85" s="87" t="s">
         <v>534</v>
       </c>
-      <c r="G85" s="113" t="s">
+      <c r="G85" s="109" t="s">
         <v>141</v>
       </c>
     </row>
@@ -4679,7 +4637,7 @@
       <c r="F86" s="77" t="s">
         <v>535</v>
       </c>
-      <c r="G86" s="103" t="s">
+      <c r="G86" s="99" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4697,12 +4655,12 @@
         <v>422</v>
       </c>
       <c r="E87" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F87" s="73" t="s">
         <v>536</v>
       </c>
-      <c r="G87" s="102" t="s">
+      <c r="G87" s="98" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4725,7 +4683,7 @@
       <c r="F88" s="77" t="s">
         <v>537</v>
       </c>
-      <c r="G88" s="105" t="s">
+      <c r="G88" s="101" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4748,7 +4706,7 @@
       <c r="F89" s="77" t="s">
         <v>538</v>
       </c>
-      <c r="G89" s="105" t="s">
+      <c r="G89" s="101" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4766,12 +4724,12 @@
         <v>425</v>
       </c>
       <c r="E90" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F90" s="73" t="s">
         <v>539</v>
       </c>
-      <c r="G90" s="102" t="s">
+      <c r="G90" s="98" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4794,7 +4752,7 @@
       <c r="F91" s="77" t="s">
         <v>540</v>
       </c>
-      <c r="G91" s="104" t="s">
+      <c r="G91" s="100" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4817,7 +4775,7 @@
       <c r="F92" s="77" t="s">
         <v>541</v>
       </c>
-      <c r="G92" s="104" t="s">
+      <c r="G92" s="100" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4840,7 +4798,7 @@
       <c r="F93" s="77" t="s">
         <v>542</v>
       </c>
-      <c r="G93" s="104" t="s">
+      <c r="G93" s="100" t="s">
         <v>181</v>
       </c>
     </row>
@@ -4858,12 +4816,12 @@
         <v>429</v>
       </c>
       <c r="E94" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F94" s="73" t="s">
         <v>543</v>
       </c>
-      <c r="G94" s="102" t="s">
+      <c r="G94" s="98" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4886,7 +4844,7 @@
       <c r="F95" s="77" t="s">
         <v>544</v>
       </c>
-      <c r="G95" s="104" t="s">
+      <c r="G95" s="100" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4909,7 +4867,7 @@
       <c r="F96" s="77" t="s">
         <v>545</v>
       </c>
-      <c r="G96" s="104" t="s">
+      <c r="G96" s="100" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4932,7 +4890,7 @@
       <c r="F97" s="77" t="s">
         <v>546</v>
       </c>
-      <c r="G97" s="104" t="s">
+      <c r="G97" s="100" t="s">
         <v>189</v>
       </c>
     </row>
@@ -4950,12 +4908,12 @@
         <v>433</v>
       </c>
       <c r="E98" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F98" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="G98" s="102" t="s">
+      <c r="G98" s="98" t="s">
         <v>171</v>
       </c>
     </row>
@@ -4978,7 +4936,7 @@
       <c r="F99" s="74" t="s">
         <v>548</v>
       </c>
-      <c r="G99" s="103" t="s">
+      <c r="G99" s="99" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5001,7 +4959,7 @@
       <c r="F100" s="77" t="s">
         <v>549</v>
       </c>
-      <c r="G100" s="103" t="s">
+      <c r="G100" s="99" t="s">
         <v>197</v>
       </c>
     </row>
@@ -5019,12 +4977,12 @@
         <v>436</v>
       </c>
       <c r="E101" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F101" s="73" t="s">
         <v>550</v>
       </c>
-      <c r="G101" s="102" t="s">
+      <c r="G101" s="98" t="s">
         <v>171</v>
       </c>
     </row>
@@ -5047,7 +5005,7 @@
       <c r="F102" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="G102" s="116" t="s">
+      <c r="G102" s="112" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5070,7 +5028,7 @@
       <c r="F103" s="82" t="s">
         <v>552</v>
       </c>
-      <c r="G103" s="116" t="s">
+      <c r="G103" s="112" t="s">
         <v>203</v>
       </c>
     </row>
@@ -5093,7 +5051,7 @@
       <c r="F104" s="83" t="s">
         <v>553</v>
       </c>
-      <c r="G104" s="113" t="s">
+      <c r="G104" s="109" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5116,7 +5074,7 @@
       <c r="F105" s="77" t="s">
         <v>554</v>
       </c>
-      <c r="G105" s="103" t="s">
+      <c r="G105" s="99" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5139,7 +5097,7 @@
       <c r="F106" s="77" t="s">
         <v>555</v>
       </c>
-      <c r="G106" s="103" t="s">
+      <c r="G106" s="99" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5162,7 +5120,7 @@
       <c r="F107" s="77" t="s">
         <v>556</v>
       </c>
-      <c r="G107" s="103" t="s">
+      <c r="G107" s="99" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5185,7 +5143,7 @@
       <c r="F108" s="77" t="s">
         <v>557</v>
       </c>
-      <c r="G108" s="103" t="s">
+      <c r="G108" s="99" t="s">
         <v>209</v>
       </c>
     </row>
@@ -5208,7 +5166,7 @@
       <c r="F109" s="72" t="s">
         <v>558</v>
       </c>
-      <c r="G109" s="113" t="s">
+      <c r="G109" s="109" t="s">
         <v>141</v>
       </c>
     </row>
@@ -5231,7 +5189,7 @@
       <c r="F110" s="74" t="s">
         <v>559</v>
       </c>
-      <c r="G110" s="109" t="s">
+      <c r="G110" s="105" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5249,12 +5207,12 @@
         <v>446</v>
       </c>
       <c r="E111" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F111" s="83" t="s">
         <v>560</v>
       </c>
-      <c r="G111" s="113" t="s">
+      <c r="G111" s="109" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5277,7 +5235,7 @@
       <c r="F112" s="74" t="s">
         <v>561</v>
       </c>
-      <c r="G112" s="103" t="s">
+      <c r="G112" s="99" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5295,12 +5253,12 @@
         <v>448</v>
       </c>
       <c r="E113" s="49" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F113" s="73" t="s">
         <v>562</v>
       </c>
-      <c r="G113" s="113" t="s">
+      <c r="G113" s="109" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5323,7 +5281,7 @@
       <c r="F114" s="74" t="s">
         <v>563</v>
       </c>
-      <c r="G114" s="103" t="s">
+      <c r="G114" s="99" t="s">
         <v>227</v>
       </c>
     </row>
@@ -5346,7 +5304,7 @@
       <c r="F115" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="G115" s="113" t="s">
+      <c r="G115" s="109" t="s">
         <v>219</v>
       </c>
     </row>
@@ -5369,7 +5327,7 @@
       <c r="F116" s="77" t="s">
         <v>565</v>
       </c>
-      <c r="G116" s="104" t="s">
+      <c r="G116" s="100" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5392,7 +5350,7 @@
       <c r="F117" s="74" t="s">
         <v>566</v>
       </c>
-      <c r="G117" s="104" t="s">
+      <c r="G117" s="100" t="s">
         <v>231</v>
       </c>
     </row>
@@ -5415,77 +5373,8 @@
       <c r="F118" s="74" t="s">
         <v>567</v>
       </c>
-      <c r="G118" s="104" t="s">
+      <c r="G118" s="100" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D121" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F121" s="1" t="s">
-        <v>568</v>
-      </c>
-      <c r="G121" s="106" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A122" s="7" t="s">
-        <v>570</v>
-      </c>
-      <c r="B122" s="6" t="s">
-        <v>571</v>
-      </c>
-      <c r="C122" s="50" t="s">
-        <v>574</v>
-      </c>
-      <c r="D122" s="98" t="s">
-        <v>577</v>
-      </c>
-      <c r="E122" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F122" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="G122" s="103" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>572</v>
-      </c>
-      <c r="B123" s="95" t="s">
-        <v>573</v>
-      </c>
-      <c r="C123" s="50" t="s">
-        <v>575</v>
-      </c>
-      <c r="D123" s="97" t="s">
-        <v>576</v>
-      </c>
-      <c r="E123" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F123" s="96" t="s">
-        <v>55</v>
-      </c>
-      <c r="G123" s="104" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -5598,11 +5487,9 @@
     <hyperlink ref="C22" r:id="rId105"/>
     <hyperlink ref="C13" r:id="rId106"/>
     <hyperlink ref="C102" r:id="rId107"/>
-    <hyperlink ref="C123" r:id="rId108"/>
-    <hyperlink ref="C122" r:id="rId109"/>
-    <hyperlink ref="C54" r:id="rId110"/>
+    <hyperlink ref="C54" r:id="rId108"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId111"/>
+  <pageSetup orientation="portrait" r:id="rId109"/>
 </worksheet>
 </file>